--- a/csv/new1221.xlsx
+++ b/csv/new1221.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6594" tabRatio="774" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6594" tabRatio="774" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="new1221" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8920" uniqueCount="2207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8923" uniqueCount="2210">
   <si>
     <t>date</t>
   </si>
@@ -6707,6 +6707,18 @@
   </si>
   <si>
     <t>Africa</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>丞瑀</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜儒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -62156,1238 +62168,1528 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F140"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.68359375" customWidth="1"/>
-    <col min="2" max="2" width="6.26171875" customWidth="1"/>
-    <col min="5" max="5" width="7.20703125" customWidth="1"/>
+    <col min="2" max="4" width="6.26171875" customWidth="1"/>
+    <col min="7" max="7" width="7.20703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="22" t="s">
         <v>2196</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22" t="s">
         <v>2197</v>
       </c>
-      <c r="F1" s="22"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>2107</v>
       </c>
       <c r="B2" s="1">
         <v>330</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>228</v>
       </c>
-      <c r="E2">
-        <f>D2/54</f>
+      <c r="G2">
+        <f>F2/54</f>
         <v>4.2222222222222223</v>
       </c>
-      <c r="F2" s="4">
-        <f t="shared" ref="F2:F8" si="0">D2/1857</f>
+      <c r="H2" s="4">
+        <f t="shared" ref="H2:H8" si="0">F2/1857</f>
         <v>0.12277867528271405</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>2110</v>
       </c>
       <c r="B3" s="1">
         <v>85</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2" t="s">
         <v>1369</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>492</v>
       </c>
-      <c r="E3">
-        <f>D3/60</f>
+      <c r="G3">
+        <f>F3/60</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="F3" s="4">
+      <c r="H3" s="4">
         <f t="shared" si="0"/>
         <v>0.26494345718901452</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>2076</v>
       </c>
       <c r="B4" s="1">
         <v>71</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>228</v>
       </c>
-      <c r="E4">
-        <f>D4/33</f>
+      <c r="G4">
+        <f>F4/33</f>
         <v>6.9090909090909092</v>
       </c>
-      <c r="F4" s="4">
+      <c r="H4" s="4">
         <f t="shared" si="0"/>
         <v>0.12277867528271405</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>2074</v>
       </c>
       <c r="B5" s="1">
         <v>63</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2" t="s">
         <v>1892</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>93</v>
       </c>
-      <c r="E5">
-        <f>D5/3</f>
+      <c r="G5">
+        <f>F5/3</f>
         <v>31</v>
       </c>
-      <c r="F5" s="4">
+      <c r="H5" s="4">
         <f t="shared" si="0"/>
         <v>5.0080775444264945E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>2079</v>
       </c>
       <c r="B6" s="1">
         <v>63</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>444</v>
       </c>
-      <c r="E6">
-        <f>D6/43</f>
+      <c r="G6">
+        <f>F6/43</f>
         <v>10.325581395348838</v>
       </c>
-      <c r="F6" s="4">
+      <c r="H6" s="4">
         <f t="shared" si="0"/>
         <v>0.23909531502423265</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>2073</v>
       </c>
       <c r="B7" s="1">
         <v>59</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2" t="s">
         <v>1000</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>372</v>
       </c>
-      <c r="E7">
-        <f>D7/2</f>
+      <c r="G7">
+        <f>F7/2</f>
         <v>186</v>
       </c>
-      <c r="F7" s="4">
+      <c r="H7" s="4">
         <f t="shared" si="0"/>
         <v>0.20032310177705978</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>2060</v>
       </c>
       <c r="B8" s="1">
         <v>56</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="8" t="s">
         <v>2152</v>
       </c>
-      <c r="D8" s="22">
-        <f>SUM(D2:D7)</f>
+      <c r="F8" s="22">
+        <f>SUM(F2:F7)</f>
         <v>1857</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="20">
+      <c r="G8" s="22"/>
+      <c r="H8" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>2148</v>
       </c>
       <c r="B9" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>2108</v>
       </c>
       <c r="B10" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>2112</v>
       </c>
       <c r="B11" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="H11">
+        <f>140/4</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
         <v>2109</v>
       </c>
       <c r="B12" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
         <v>2150</v>
       </c>
       <c r="B13" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
         <v>2055</v>
       </c>
       <c r="B14" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
         <v>2075</v>
       </c>
       <c r="B15" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
         <v>2099</v>
       </c>
       <c r="B16" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>2115</v>
       </c>
       <c r="B17" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>2118</v>
       </c>
       <c r="B18" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
         <v>2119</v>
       </c>
       <c r="B19" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>2053</v>
       </c>
       <c r="B20" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>2019</v>
       </c>
       <c r="B21" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
         <v>2117</v>
       </c>
       <c r="B22" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
         <v>2126</v>
       </c>
       <c r="B23" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
         <v>2077</v>
       </c>
       <c r="B24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
         <v>2121</v>
       </c>
       <c r="B25" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
         <v>2057</v>
       </c>
       <c r="B26" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
         <v>2080</v>
       </c>
       <c r="B27" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>2083</v>
       </c>
       <c r="B28" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
         <v>2056</v>
       </c>
       <c r="B29" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
         <v>2018</v>
       </c>
       <c r="B30" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
         <v>2120</v>
       </c>
       <c r="B31" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
         <v>2016</v>
       </c>
       <c r="B32" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
         <v>2089</v>
       </c>
       <c r="B33" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
         <v>2093</v>
       </c>
       <c r="B34" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
         <v>2025</v>
       </c>
       <c r="B35" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
         <v>2013</v>
       </c>
       <c r="B36" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
         <v>2124</v>
       </c>
       <c r="B37" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
         <v>2149</v>
       </c>
       <c r="B38" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
         <v>2066</v>
       </c>
       <c r="B39" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
         <v>2026</v>
       </c>
       <c r="B40" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
         <v>2062</v>
       </c>
       <c r="B41" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
         <v>2022</v>
       </c>
       <c r="B42" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
         <v>2082</v>
       </c>
       <c r="B43" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
         <v>2127</v>
       </c>
       <c r="B44" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
         <v>2059</v>
       </c>
       <c r="B45" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
         <v>2028</v>
       </c>
       <c r="B46" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
         <v>2114</v>
       </c>
       <c r="B47" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
         <v>2122</v>
       </c>
       <c r="B48" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
         <v>2136</v>
       </c>
       <c r="B49" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
         <v>2113</v>
       </c>
       <c r="B50" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
         <v>2069</v>
       </c>
       <c r="B51" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
         <v>2081</v>
       </c>
       <c r="B52" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
         <v>2116</v>
       </c>
       <c r="B53" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
         <v>2015</v>
       </c>
       <c r="B54" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
         <v>2024</v>
       </c>
       <c r="B55" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
         <v>2017</v>
       </c>
       <c r="B56" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
         <v>2038</v>
       </c>
       <c r="B57" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
         <v>2123</v>
       </c>
       <c r="B58" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
         <v>2131</v>
       </c>
       <c r="B59" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
         <v>2129</v>
       </c>
       <c r="B60" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
         <v>2045</v>
       </c>
       <c r="B61" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
         <v>2061</v>
       </c>
       <c r="B62" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
         <v>2033</v>
       </c>
       <c r="B63" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
         <v>2023</v>
       </c>
       <c r="B64" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
         <v>2014</v>
       </c>
       <c r="B65" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
         <v>2054</v>
       </c>
       <c r="B66" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
         <v>2065</v>
       </c>
       <c r="B67" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
         <v>2020</v>
       </c>
       <c r="B68" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="2" t="s">
         <v>2092</v>
       </c>
       <c r="B69" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="2" t="s">
         <v>2130</v>
       </c>
       <c r="B70" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="2" t="s">
         <v>2027</v>
       </c>
       <c r="B71" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71" s="1"/>
+      <c r="D71" s="1" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="2" t="s">
         <v>2087</v>
       </c>
       <c r="B72" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="2" t="s">
         <v>2088</v>
       </c>
       <c r="B73" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
         <v>2084</v>
       </c>
       <c r="B74" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="2" t="s">
         <v>2058</v>
       </c>
       <c r="B75" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="2" t="s">
         <v>2068</v>
       </c>
       <c r="B76" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
         <v>2134</v>
       </c>
       <c r="B77" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
         <v>2032</v>
       </c>
       <c r="B78" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
         <v>2044</v>
       </c>
       <c r="B79" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="2" t="s">
         <v>2035</v>
       </c>
       <c r="B80" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="2" t="s">
         <v>2040</v>
       </c>
       <c r="B81" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
         <v>2139</v>
       </c>
       <c r="B82" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
         <v>2037</v>
       </c>
       <c r="B83" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="2" t="s">
         <v>2021</v>
       </c>
       <c r="B84" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
         <v>2096</v>
       </c>
       <c r="B85" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
         <v>2098</v>
       </c>
       <c r="B86" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="2" t="s">
         <v>2128</v>
       </c>
       <c r="B87" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="2" t="s">
         <v>2039</v>
       </c>
       <c r="B88" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="2" t="s">
         <v>2030</v>
       </c>
       <c r="B89" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="2" t="s">
         <v>2029</v>
       </c>
       <c r="B90" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="2" t="s">
         <v>2142</v>
       </c>
       <c r="B91" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
         <v>2097</v>
       </c>
       <c r="B92" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
         <v>2036</v>
       </c>
       <c r="B93" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
         <v>2042</v>
       </c>
       <c r="B94" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="2" t="s">
         <v>2086</v>
       </c>
       <c r="B95" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="2" t="s">
         <v>2095</v>
       </c>
       <c r="B96" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="2" t="s">
         <v>2070</v>
       </c>
       <c r="B97" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
         <v>2063</v>
       </c>
       <c r="B98" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
         <v>2072</v>
       </c>
       <c r="B99" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="2" t="s">
         <v>2094</v>
       </c>
       <c r="B100" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
         <v>2103</v>
       </c>
       <c r="B101" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="2" t="s">
         <v>2138</v>
       </c>
       <c r="B102" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="2" t="s">
         <v>2064</v>
       </c>
       <c r="B103" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="2" t="s">
         <v>2078</v>
       </c>
       <c r="B104" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="2" t="s">
         <v>2102</v>
       </c>
       <c r="B105" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="2" t="s">
         <v>2111</v>
       </c>
       <c r="B106" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="107" spans="1:2">
+      <c r="C106" s="1"/>
+      <c r="D106" s="1" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="2" t="s">
         <v>2143</v>
       </c>
       <c r="B107" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" s="2" t="s">
         <v>2034</v>
       </c>
       <c r="B108" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:2">
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
         <v>2051</v>
       </c>
       <c r="B109" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="2" t="s">
         <v>2104</v>
       </c>
       <c r="B110" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" s="2" t="s">
         <v>2067</v>
       </c>
       <c r="B111" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" s="2" t="s">
         <v>2049</v>
       </c>
       <c r="B112" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="2" t="s">
         <v>2146</v>
       </c>
       <c r="B113" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="2" t="s">
         <v>2140</v>
       </c>
       <c r="B114" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="2" t="s">
         <v>2046</v>
       </c>
       <c r="B115" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:2">
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="2" t="s">
         <v>2048</v>
       </c>
       <c r="B116" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" s="2" t="s">
         <v>2071</v>
       </c>
       <c r="B117" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:2">
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="2" t="s">
         <v>2144</v>
       </c>
       <c r="B118" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:2">
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="2" t="s">
         <v>2043</v>
       </c>
       <c r="B119" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:2">
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="2" t="s">
         <v>2091</v>
       </c>
       <c r="B120" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="2" t="s">
         <v>2145</v>
       </c>
       <c r="B121" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="2" t="s">
         <v>2105</v>
       </c>
       <c r="B122" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="2" t="s">
         <v>2101</v>
       </c>
       <c r="B123" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:2">
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" s="2" t="s">
         <v>2050</v>
       </c>
       <c r="B124" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:2">
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" s="2" t="s">
         <v>2132</v>
       </c>
       <c r="B125" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:2">
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" s="2" t="s">
         <v>2147</v>
       </c>
       <c r="B126" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:2">
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" s="2" t="s">
         <v>2135</v>
       </c>
       <c r="B127" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:2">
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" s="2" t="s">
         <v>2125</v>
       </c>
       <c r="B128" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:2">
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" s="2" t="s">
         <v>2047</v>
       </c>
       <c r="B129" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:2">
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" s="2" t="s">
         <v>2031</v>
       </c>
       <c r="B130" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:2">
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" s="2" t="s">
         <v>2085</v>
       </c>
       <c r="B131" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" s="2" t="s">
         <v>2090</v>
       </c>
       <c r="B132" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:2">
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" s="2" t="s">
         <v>2141</v>
       </c>
       <c r="B133" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:2">
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" s="2" t="s">
         <v>2106</v>
       </c>
       <c r="B134" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:2">
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" s="2" t="s">
         <v>2100</v>
       </c>
       <c r="B135" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:2">
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" s="2" t="s">
         <v>2041</v>
       </c>
       <c r="B136" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:2">
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" s="2" t="s">
         <v>2052</v>
       </c>
       <c r="B137" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:2">
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" s="2" t="s">
         <v>2137</v>
       </c>
       <c r="B138" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:2">
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
         <v>2133</v>
       </c>
       <c r="B139" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" s="6" t="s">
         <v>2174</v>
       </c>
       <c r="B140" s="7">
         <v>1857</v>
       </c>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
     </row>
   </sheetData>
   <sortState ref="A1:B140">
@@ -63395,6 +63697,7 @@
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -66670,7 +66973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BZ63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
